--- a/biology/Zoologie/Fugu/Fugu.xlsx
+++ b/biology/Zoologie/Fugu/Fugu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Takifugu
 Le genre Takifugu comprend des poissons appelés fugu (河豚／鰒／鮐／魨／鯸／鯺?), connus pour provoquer de très graves intoxications à la tétrodotoxine. Il est aussi appelé « poisson-globe » et « poisson-ballon » en Méditerranée orientale.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fugu se gonfle d'eau lorsqu'il se sent menacé, ce qui explique son surnom de poisson-globe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fugu se gonfle d'eau lorsqu'il se sent menacé, ce qui explique son surnom de poisson-globe.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le foie, les ovaires, les intestins et la peau[2] des fugu contiennent un poison très toxique (actif à des concentrations de l'ordre du nanomolaire) : la tétrodotoxine, contre laquelle il n'existe pas d'antidote, la mort pouvant intervenir dans un délai de quatre à six heures[3]. Le Takifugu ocellatus, par exemple, est mortel pour l'homme dans plus de 62 % des cas d'intoxication : il faut donc immédiatement  rechercher une aide médicale dès les premiers symptômes (paresthésie buccale, fourmillements au visage, nausées et douleurs abdominales) et effectuer un bouche-à-bouche si nécessaire pour essayer de sauver la victime[4]. Cette neurotoxine paralyse les muscles et entraîne la mort par arrêt respiratoire[1]. Cette paralysie résulte de l'inhibition des canaux sodiques voltage-dépendants, provoquant ainsi des potentiels d'action caractérisés par un niveau de seuil plus élevé, une phase ascendante plus lente et une amplitude moindre.
-Des traces de tétrodotoxine ont été trouvées dans les algues rouges du genre Jania (en) (Rhodophyta). Dans cette algue, on peut isoler  une bactérie qui, cultivée, produira ce poison. Cette bactérie est vraisemblablement ingérée avec l'algue par les animaux, qui accumulent par la suite la tétrodotoxine. Le fugu y est lui-même résistant, ce qui expliquerait que le fugu d'élevage est exempt de cette toxine [5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le foie, les ovaires, les intestins et la peau des fugu contiennent un poison très toxique (actif à des concentrations de l'ordre du nanomolaire) : la tétrodotoxine, contre laquelle il n'existe pas d'antidote, la mort pouvant intervenir dans un délai de quatre à six heures. Le Takifugu ocellatus, par exemple, est mortel pour l'homme dans plus de 62 % des cas d'intoxication : il faut donc immédiatement  rechercher une aide médicale dès les premiers symptômes (paresthésie buccale, fourmillements au visage, nausées et douleurs abdominales) et effectuer un bouche-à-bouche si nécessaire pour essayer de sauver la victime. Cette neurotoxine paralyse les muscles et entraîne la mort par arrêt respiratoire. Cette paralysie résulte de l'inhibition des canaux sodiques voltage-dépendants, provoquant ainsi des potentiels d'action caractérisés par un niveau de seuil plus élevé, une phase ascendante plus lente et une amplitude moindre.
+Des traces de tétrodotoxine ont été trouvées dans les algues rouges du genre Jania (en) (Rhodophyta). Dans cette algue, on peut isoler  une bactérie qui, cultivée, produira ce poison. Cette bactérie est vraisemblablement ingérée avec l'algue par les animaux, qui accumulent par la suite la tétrodotoxine. Le fugu y est lui-même résistant, ce qui expliquerait que le fugu d'élevage est exempt de cette toxine .
 </t>
         </is>
       </c>
@@ -575,11 +591,13 @@
           <t>Cuisine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, seuls les cuisiniers disposant d'une licence accordée par l'État sont autorisés à préparer ce plat, considéré comme très raffiné[3]. Pour autant, pour une question de sécurité, l'empereur du Japon tout comme les samouraïs n'avaient pas le droit d'en manger, une loi les en empêchant (cette loi étant toujours d'actualité pour l'empereur)[6]. Pour en retirer la toxine, il leur faut enlever notamment la peau, le foie, les intestins et les gonades. Néanmoins en 2011, 17 personnes ont été empoisonnées par le fugu au Japon, et l'une d'entre elles en est morte[1]. En décembre 2011, les autorités ont ainsi retiré sa licence à un restaurant qui avait servi un foie de fugu à la demande du client[1]. Depuis octobre 2012, tous les restaurants peuvent proposer du fugu, à condition qu'il ait été préparé et nettoyé par un chef agréé[1].
-Une personne non initiée pourra le trouver un peu fade, mais la texture particulière, la rareté du mets et le folklore lié à sa préparation font de sa dégustation un événement singulier. Il se sert en sashimi (coupé en tranches très fines, translucides) et en nabe[3]. En 2012, un plat de fugu coûtait plus de 5 000 yens (environ cinquante euros) auprès de la chaîne Torafugu-tei, jusqu'à plusieurs dizaines de milliers de yens dans de grands restaurants[1].
-Les Polynésiens préparent le fugu, dans l'archipel des Tuamotu, c'est une tradition qui se transmet de génération en génération. Il est également préparé à Taïwan, en particulier dans les îles Pescadores où il est pêché en grande quantité[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, seuls les cuisiniers disposant d'une licence accordée par l'État sont autorisés à préparer ce plat, considéré comme très raffiné. Pour autant, pour une question de sécurité, l'empereur du Japon tout comme les samouraïs n'avaient pas le droit d'en manger, une loi les en empêchant (cette loi étant toujours d'actualité pour l'empereur). Pour en retirer la toxine, il leur faut enlever notamment la peau, le foie, les intestins et les gonades. Néanmoins en 2011, 17 personnes ont été empoisonnées par le fugu au Japon, et l'une d'entre elles en est morte. En décembre 2011, les autorités ont ainsi retiré sa licence à un restaurant qui avait servi un foie de fugu à la demande du client. Depuis octobre 2012, tous les restaurants peuvent proposer du fugu, à condition qu'il ait été préparé et nettoyé par un chef agréé.
+Une personne non initiée pourra le trouver un peu fade, mais la texture particulière, la rareté du mets et le folklore lié à sa préparation font de sa dégustation un événement singulier. Il se sert en sashimi (coupé en tranches très fines, translucides) et en nabe. En 2012, un plat de fugu coûtait plus de 5 000 yens (environ cinquante euros) auprès de la chaîne Torafugu-tei, jusqu'à plusieurs dizaines de milliers de yens dans de grands restaurants.
+Les Polynésiens préparent le fugu, dans l'archipel des Tuamotu, c'est une tradition qui se transmet de génération en génération. Il est également préparé à Taïwan, en particulier dans les îles Pescadores où il est pêché en grande quantité.
 			Vente de fugu au Japon.
 			Sashimi de fugu.
 			Fugu aux légumes.
@@ -612,11 +630,13 @@
           <t>Présence naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, 80 % des fugu pêchés, ou produits par la pisciculture, passent par Shimonoseki, où se concentrent les entreprises spécialisées dans sa préparation. Elles les débarrassent de leurs parties empoisonnées avant de les expédier dans le reste du pays[3],[8].
-Depuis quelques décennies[Quand ?], le fugu colonise, avec d’autres espèces végétales et animales, la Méditerranée orientale[9].
-En raison de la surexploitation, l'Union internationale pour la conservation de la nature estime que la population mondiale du Takifugu chinensis (es) a diminué de 99,99 % depuis les années 1970[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, 80 % des fugu pêchés, ou produits par la pisciculture, passent par Shimonoseki, où se concentrent les entreprises spécialisées dans sa préparation. Elles les débarrassent de leurs parties empoisonnées avant de les expédier dans le reste du pays,.
+Depuis quelques décennies[Quand ?], le fugu colonise, avec d’autres espèces végétales et animales, la Méditerranée orientale.
+En raison de la surexploitation, l'Union internationale pour la conservation de la nature estime que la population mondiale du Takifugu chinensis (es) a diminué de 99,99 % depuis les années 1970.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (5 févr. 2012)[11] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (5 févr. 2012) :
 Takifugu alboplumbeus (Richardson, 1845)
 Takifugu bimaculatus (Richardson, 1845)
 Takifugu chinensis (Abe, 1949)
@@ -710,21 +732,125 @@
           <t>Le fugu dans la culture populaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le célèbre acteur japonais de théâtre kabuki, Bandō Mitsugorō VIII, mourut le 16 janvier 1975 des suites d'une intoxication à la tétrodotoxine après avoir voulu impérativement goûter au foie de fugu et surtout, consommer la part de ses invitées afin de les impressionner.
-Littérature
-Dans le livre Maléfices de Maxime Chattam, le détective Brolin subit une injection durant son sommeil qui le conduira jusqu'à une mort déclarée, basée sur de la tétrodotoxine.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le célèbre acteur japonais de théâtre kabuki, Bandō Mitsugorō VIII, mourut le 16 janvier 1975 des suites d'une intoxication à la tétrodotoxine après avoir voulu impérativement goûter au foie de fugu et surtout, consommer la part de ses invitées afin de les impressionner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fugu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le fugu dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans le livre Maléfices de Maxime Chattam, le détective Brolin subit une injection durant son sommeil qui le conduira jusqu'à une mort déclarée, basée sur de la tétrodotoxine.
 Dans le livre The Havana Room de Colin Harrison, des sushi de fugu font l'objet d'enchères délirantes, car le poison contenu dans le fugu est, à toute petite dose, une drogue sans équivalent.
-Dans le roman de la série James Bond et son adaptation cinématographique, Bons baisers de Russie, l'ennemie de Bond Rosa Klebb tente de l'achever avec une lame imprégnée de ce venin. Dans le roman, Bond échappe de peu à la mort par René Mathis, alors qu'il n'est pas touché dans le film, Klebb se faisant tuer avant par Tatiana Romanova.
-Cinéma
-Dans le film Living Death, le personnage principal est empoisonné par la tétrodotoxine.
+Dans le roman de la série James Bond et son adaptation cinématographique, Bons baisers de Russie, l'ennemie de Bond Rosa Klebb tente de l'achever avec une lame imprégnée de ce venin. Dans le roman, Bond échappe de peu à la mort par René Mathis, alors qu'il n'est pas touché dans le film, Klebb se faisant tuer avant par Tatiana Romanova.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fugu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le fugu dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dans le film Living Death, le personnage principal est empoisonné par la tétrodotoxine.
 Dans le film John Carter, le héros John explique à son neveu qu'il a utilisé la tétrodotoxine du poisson-globe afin de simuler la mort.
 Dans le film Charlie et ses drôles de dames, vers la 19e minute, le patron des filles invité à une soirée mange du fugu dans le cadre d'une enquête, même si l'une des filles lui précise qu'un sur soixante est mortel.
 Dans le film Sushi Girl, des anciens braqueurs de diamants se retrouvent pour découvrir qui a gardé le butin autour d'une sushi girl et de fugu.
-Dans le film Que justice soit faite, le personnage principal enlève le tueur de sa femme et sa fille avec la tétrodotoxine. en l'injectant depuis une arme à feu modifiée.
-Séries TV
-Le fugu apparaît dans la série Les Experts :
+Dans le film Que justice soit faite, le personnage principal enlève le tueur de sa femme et sa fille avec la tétrodotoxine. en l'injectant depuis une arme à feu modifiée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fugu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le fugu dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Séries TV</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le fugu apparaît dans la série Les Experts :
 dans la série Les Experts : Miami : Les Vices de Miami (saison 3, épisode 14) ;
 dans la série Les Experts : Manhattan : Poisson mortel (saison 1, épisode 4).
 Homer Simpson a failli être empoisonné avec un fugu (appelé « poisson lune » à tort) dans l'épisode Un poisson nommé Fugu.
@@ -745,15 +871,83 @@
 Dans la saison 2, épisode 7 de Breaking Bad, alors que l'épisode s'appelle Poisson Lune (différent du poisson-ballon) Walter White décrit précisément les caractéristiques du fugu qui symbolisent Jesse Pinkman.
 Dans la saison 2, épisode 6 de Bron.
 Dans la saison 1, épisode 6 de Balthazar, à la suite de la découverte de poison issu de fugu (appelé « poisson lune » à tort).
-Dans la saison 6, épisode 8 de Rizzoli and Isles, le fugu est l'arme du crime.
-Jeux vidéo
-Dans le jeu vidéo Hitman 2: Silent Assassin, le tueur a la possibilité d'assassiner un Japonais en l'empoisonnant à l'aide de fugu.
+Dans la saison 6, épisode 8 de Rizzoli and Isles, le fugu est l'arme du crime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fugu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le fugu dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans le jeu vidéo Hitman 2: Silent Assassin, le tueur a la possibilité d'assassiner un Japonais en l'empoisonnant à l'aide de fugu.
 Dans le jeu vidéo Hitman: Absolution, l'agent 47 peut tuer le « roi de Chinatown » en mettant du poison de fugu dans de la nourriture, dans le café ou dans la drogue de sa victime.
 Dans le jeu vidéo Hitman, l'agent 47 peut tuer Yuki Yamazaki, employée de Providence, en empoisonnant les sushis avec du poison de fugu, au bar à sushis.
 Dans le jeu vidéo Stupid Invaders, adapté de la série Les Zinzins de l'espace, Candy doit prendre un fugu dans un sous-marin pour le faire manger par un cuisinier.
-Dans l'extension Vie Citadine pour Les Sims 4, un plat appelé nigiri au fugu peut causer la mort de celui qui le consomme s'il est mal préparé.
-Internet
-En 2019, un fugu fait le buzz sur YouTube et devient un mème internet du fait du son émis quand on lui donne une tranche de carotte.
+Dans l'extension Vie Citadine pour Les Sims 4, un plat appelé nigiri au fugu peut causer la mort de celui qui le consomme s'il est mal préparé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fugu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Le fugu dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, un fugu fait le buzz sur YouTube et devient un mème internet du fait du son émis quand on lui donne une tranche de carotte.
 </t>
         </is>
       </c>
